--- a/Framework_Practice/src/test/java/user_data.xlsx
+++ b/Framework_Practice/src/test/java/user_data.xlsx
@@ -3,16 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6F1C8393-CD10-4122-9BCA-7B5C0D0F8CCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manik.gupta\git\Test_Site_Final\Framework_Practice\src\test\java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4C793F-39A0-428A-B2A6-62F5A0BA566C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15732" windowHeight="7680" xr2:uid="{E25824A2-1269-489B-BAB0-AA0FF17E796E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17904" windowHeight="7608" activeTab="2" xr2:uid="{E25824A2-1269-489B-BAB0-AA0FF17E796E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -64,13 +69,19 @@
   </si>
   <si>
     <t>firstname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>manikgupta33@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +89,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,14 +126,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B4DCC9-FD78-4200-8936-6E316DE5CB4D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -468,12 +520,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -481,11 +533,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -507,5 +559,53 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97597C72-DA47-4956-B3DB-A3E01E195FEB}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F3413EBA-7B53-4ED6-BA16-96F2AC6648A7}"/>
+    <hyperlink ref="A3:A5" r:id="rId2" display="manikgupta33@gmail.com" xr:uid="{9984D602-D4CD-41D6-93D9-AC7D83F32BD2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>